--- a/chart2/qa/extras/xshape/data/xlsx/tdf90839-1.xlsx
+++ b/chart2/qa/extras/xshape/data/xlsx/tdf90839-1.xlsx
@@ -48,7 +48,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
@@ -863,7 +863,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Noto Sans"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
